--- a/Dossiers personnels/Loyse/Journal_Travail.xlsx
+++ b/Dossiers personnels/Loyse/Journal_Travail.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Date</t>
   </si>
@@ -61,6 +61,18 @@
   </si>
   <si>
     <t>Finition du Gantt, Cahier des charges, répartition des heures</t>
+  </si>
+  <si>
+    <t>Discussion de sur l'implémentation du undo-redo + établissement d'un diagramme de classe du model</t>
+  </si>
+  <si>
+    <t>Réunion de mise en commun du travail + discussion du undo-redo</t>
+  </si>
+  <si>
+    <t>Recherche sur l'implementation de la sauvegarde</t>
+  </si>
+  <si>
+    <t>test d'implémentation du système de sauvegrade par sérialisation</t>
   </si>
 </sst>
 </file>
@@ -461,7 +473,7 @@
   <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -582,25 +594,49 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="8"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="8"/>
+    <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>43168</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>43171</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="8">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="8"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="8"/>
+      <c r="A15" s="3">
+        <v>43175</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>43177</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="8">
+        <v>5</v>
+      </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
@@ -688,7 +724,7 @@
       </c>
       <c r="C33" s="9">
         <f>SUM(C5:C32)</f>
-        <v>12.75</v>
+        <v>25.25</v>
       </c>
     </row>
   </sheetData>

--- a/Dossiers personnels/Loyse/Journal_Travail.xlsx
+++ b/Dossiers personnels/Loyse/Journal_Travail.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>Date</t>
   </si>
@@ -73,14 +73,57 @@
   </si>
   <si>
     <t>test d'implémentation du système de sauvegrade par sérialisation</t>
+  </si>
+  <si>
+    <t>recherches sur le conrôleur de calque (mise en place d'un hiérarche de classes)</t>
+  </si>
+  <si>
+    <t>discussions sur l'implémentation de la sauvegarde + mise au point sur la suite du projet</t>
+  </si>
+  <si>
+    <t>recherche sur la modélisation du contrôler</t>
+  </si>
+  <si>
+    <t>refactorisation du code du programme, implémentation du pencil</t>
+  </si>
+  <si>
+    <t>Présentation intérmédiaire du projet</t>
+  </si>
+  <si>
+    <t>0.25</t>
+  </si>
+  <si>
+    <t>Restructuration du projet, mise en place correcte du pencil et debut d'implémentation de la gomme</t>
+  </si>
+  <si>
+    <t>Recherches sur l'implémentation de la gomme (beaucou de difficultés à faire une gomme tirant un trait continu)</t>
+  </si>
+  <si>
+    <t>Implémentation des formes</t>
+  </si>
+  <si>
+    <t>Implémentation des formes + rédaction du rapport</t>
+  </si>
+  <si>
+    <t>Rédaction du rapport + recherche sur un moyen de rendre la base des traits de crayon ronde (jusque là, le trait de crayon dessinait des suites de carrés)</t>
+  </si>
+  <si>
+    <t>Rédaction du rapport</t>
+  </si>
+  <si>
+    <t>Rédaction du rapport et du manuel d'utilisation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Redaction du rapport et du manuel d'utilisation </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="dd/mm/yy;@"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -168,7 +211,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -189,6 +232,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -470,10 +519,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -525,7 +574,7 @@
         <v>6</v>
       </c>
       <c r="C6" s="8">
-        <v>1</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -602,7 +651,7 @@
         <v>14</v>
       </c>
       <c r="C13" s="8">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -624,7 +673,7 @@
         <v>16</v>
       </c>
       <c r="C15" s="8">
-        <v>2</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -638,93 +687,156 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="8"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="8"/>
+    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>43178</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="11">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>43192</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="8">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="8"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="8"/>
+      <c r="A19" s="3">
+        <v>43199</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="8">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>43205</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="8">
+        <v>9</v>
+      </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="8"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="3"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="8"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="3"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="8"/>
+      <c r="A21" s="3">
+        <v>43206</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>43219</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>43220</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" s="12">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="3"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="8"/>
+      <c r="A24" s="3">
+        <v>43230</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" s="8">
+        <v>13</v>
+      </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="3"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="8"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="3"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="8"/>
+      <c r="A25" s="3">
+        <v>43231</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>43234</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" s="12">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="3"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="8"/>
+      <c r="A27" s="3">
+        <v>43237</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27" s="8">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="3"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="8"/>
+      <c r="A28" s="3">
+        <v>43239</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28" s="8">
+        <v>5</v>
+      </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="3"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="8"/>
+      <c r="A29" s="3">
+        <v>43240</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C29" s="8">
+        <v>8</v>
+      </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="3"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="8"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="3"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="8"/>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="3"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="8"/>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B33" s="5" t="s">
+      <c r="B30" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C33" s="9">
-        <f>SUM(C5:C32)</f>
-        <v>25.25</v>
+      <c r="C30" s="9">
+        <f>SUM(C5:C29)</f>
+        <v>89.25</v>
       </c>
     </row>
   </sheetData>
